--- a/flaskr/uploads/rivisto.xlsx
+++ b/flaskr/uploads/rivisto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7560" windowWidth="10275" xWindow="10230" yWindow="-15"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7860" windowWidth="10275" xWindow="10230" yWindow="-15"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rivisto" sheetId="1" state="visible" r:id="rId1"/>
@@ -416,12 +416,12 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO8"/>
+  <dimension ref="A1:DP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
-      <selection activeCell="F9" pane="bottomLeft" sqref="F9"/>
+      <selection activeCell="BL22" pane="bottomLeft" sqref="BL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -431,7 +431,15 @@
     <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="9.28515625"/>
     <col customWidth="1" max="4" min="4" style="6" width="9.7109375"/>
     <col customWidth="1" max="13" min="5" style="6" width="12"/>
-    <col customWidth="1" max="16384" min="14" style="6" width="9.140625"/>
+    <col customWidth="1" max="20" min="14" style="6" width="9.140625"/>
+    <col customWidth="1" max="21" min="21" style="6" width="11.140625"/>
+    <col hidden="1" max="24" min="22" style="6"/>
+    <col customWidth="1" max="25" min="25" style="6" width="9.140625"/>
+    <col customWidth="1" max="26" min="26" style="6" width="10.5703125"/>
+    <col customWidth="1" max="27" min="27" style="6" width="34.140625"/>
+    <col hidden="1" max="63" min="28" style="6"/>
+    <col customWidth="1" max="64" min="64" style="6" width="37"/>
+    <col customWidth="1" max="16384" min="65" style="6" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="75" r="1" s="3">
@@ -1399,6 +1407,11 @@
           <t>Si</t>
         </is>
       </c>
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>__&gt; Corrispondenza Inviante non trovata in mapping</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1768,6 +1781,11 @@
           <t>Si</t>
         </is>
       </c>
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>__&gt; Corrispondenza Inviante non trovata in mapping</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2117,12 +2135,6 @@
           <t>690093|001435|Vu30001|56897.55</t>
         </is>
       </c>
-      <c r="DI4" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
-__&gt; Corrispondenza OperatoreQD non trovata in mapping</t>
-        </is>
-      </c>
       <c r="DJ4" t="n">
         <v>1</v>
       </c>
@@ -2141,6 +2153,16 @@
       <c r="DO4" t="inlineStr">
         <is>
           <t>Si</t>
+        </is>
+      </c>
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
+__&gt; Corrispondenza OperatoreQD non trovata in mapping; 
+__&gt; Corrispondenza Distretti non trovata in mapping; 
+__&gt; Corrispondenza OperatoreDistretto non trovata in mapping; 
+__&gt; Corrispondenza Metodiche non trovata in mapping; 
+__&gt; Corrispondenza Inviante non trovata in mapping</t>
         </is>
       </c>
     </row>
@@ -2527,11 +2549,6 @@
           <t>690093|001457|21123|368901.35</t>
         </is>
       </c>
-      <c r="DI5" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping</t>
-        </is>
-      </c>
       <c r="DJ5" t="n">
         <v>15</v>
       </c>
@@ -2550,6 +2567,13 @@
       <c r="DO5" t="inlineStr">
         <is>
           <t>Si</t>
+        </is>
+      </c>
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
+__&gt; Corrispondenza Distretti non trovata in mapping; 
+__&gt; Corrispondenza Inviante non trovata in mapping</t>
         </is>
       </c>
     </row>
@@ -2936,11 +2960,6 @@
           <t>690093|001457|21123|36897.35</t>
         </is>
       </c>
-      <c r="DI6" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping</t>
-        </is>
-      </c>
       <c r="DJ6" t="n">
         <v>15</v>
       </c>
@@ -2959,6 +2978,13 @@
       <c r="DO6" t="inlineStr">
         <is>
           <t>Si</t>
+        </is>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
+__&gt; Corrispondenza Distretti non trovata in mapping; 
+__&gt; Corrispondenza Inviante non trovata in mapping</t>
         </is>
       </c>
     </row>
@@ -3340,12 +3366,6 @@
           <t>690093|001457|Vu21123|368901.35</t>
         </is>
       </c>
-      <c r="DI7" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
-__&gt; Corrispondenza OperatoreQD non trovata in mapping</t>
-        </is>
-      </c>
       <c r="DJ7" t="n">
         <v>15</v>
       </c>
@@ -3364,6 +3384,16 @@
       <c r="DO7" t="inlineStr">
         <is>
           <t>Si</t>
+        </is>
+      </c>
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
+__&gt; Corrispondenza OperatoreQD non trovata in mapping; 
+__&gt; Corrispondenza Distretti non trovata in mapping; 
+__&gt; Corrispondenza OperatoreDistretto non trovata in mapping; 
+__&gt; Corrispondenza Metodiche non trovata in mapping; 
+__&gt; Corrispondenza Inviante non trovata in mapping</t>
         </is>
       </c>
     </row>
@@ -3745,12 +3775,6 @@
           <t>690093|001457|Vu21123|36897.35</t>
         </is>
       </c>
-      <c r="DI8" t="inlineStr">
-        <is>
-          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
-__&gt; Corrispondenza OperatoreQD non trovata in mapping</t>
-        </is>
-      </c>
       <c r="DJ8" t="n">
         <v>15</v>
       </c>
@@ -3769,6 +3793,16 @@
       <c r="DO8" t="inlineStr">
         <is>
           <t>Si</t>
+        </is>
+      </c>
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>__&gt; Corrispondenza Quesiti non trovata in mapping; 
+__&gt; Corrispondenza OperatoreQD non trovata in mapping; 
+__&gt; Corrispondenza Distretti non trovata in mapping; 
+__&gt; Corrispondenza OperatoreDistretto non trovata in mapping; 
+__&gt; Corrispondenza Metodiche non trovata in mapping; 
+__&gt; Corrispondenza Inviante non trovata in mapping</t>
         </is>
       </c>
     </row>
